--- a/biology/Écologie/Forêts_équatoriales_côtières_de_l'Atlantique/Forêts_équatoriales_côtières_de_l'Atlantique.xlsx
+++ b/biology/Écologie/Forêts_équatoriales_côtières_de_l'Atlantique/Forêts_équatoriales_côtières_de_l'Atlantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_%C3%A9quatoriales_c%C3%B4ti%C3%A8res_de_l%27Atlantique</t>
+          <t>Forêts_équatoriales_côtières_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts équatoriales côtières de l'Atlantique forment une écorégion définie par le fonds mondial pour la Nature (WWF) qui couvre une zone de près de 190 000 km2 s'étendant sur 6 pays : Cameroun, Guinée équatoriale (Région continentale), Gabon, République du Congo, Angola (Cabinda) et République démocratique du Congo. Elle appartient à l'écozone afrotropicale et au biome des forêts décidues humides tropicales et subtropicales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_%C3%A9quatoriales_c%C3%B4ti%C3%A8res_de_l%27Atlantique</t>
+          <t>Forêts_équatoriales_côtières_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts équatoriales côtières de l'Atlantique sont reconnues pour leur importante biodiversité : on y trouve des espèces comme le buffle d'Afrique, le Gorille de l'Ouest, le Chimpanzé, l'Éléphant de forêt d'Afrique, le Colobus satanas ou le Mandrillus sphinx[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts équatoriales côtières de l'Atlantique sont reconnues pour leur importante biodiversité : on y trouve des espèces comme le buffle d'Afrique, le Gorille de l'Ouest, le Chimpanzé, l'Éléphant de forêt d'Afrique, le Colobus satanas ou le Mandrillus sphinx.
 </t>
         </is>
       </c>
